--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001643</t>
+          <t>540008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票A</t>
+          <t>汇丰晋信低碳先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>74.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001644</t>
+          <t>001643</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信智造先锋股票C</t>
+          <t>汇丰晋信智造先锋股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.29</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>9.56</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006992</t>
+          <t>001644</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>嘉合锦创优势精选混合</t>
+          <t>汇丰晋信智造先锋股票C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>10.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005793</t>
+          <t>288002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华富可转债债券</t>
+          <t>华夏收入混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.12</t>
+          <t>27.66</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>288002</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华夏收入混合</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>13.17</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>540008</t>
+          <t>168002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信低碳先锋股票</t>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.60</t>
+          <t>9.68</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>164905</t>
+          <t>002148</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银国证新能源指数（LOF）</t>
+          <t>国寿安保稳惠灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512100</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方中证1000ETF</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>98.85</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>007592</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>华夏价值精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.08</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>162413</t>
+          <t>001822</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华宝中证1000指数</t>
+          <t>华商智能生活灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>2.85</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>9</v>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006486</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>广发中证1000指数A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>001933</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>华商新兴活力灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006487</t>
+          <t>004734</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证1000指数C</t>
+          <t>中欧瑾灵灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001822</t>
+          <t>501097</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商智能生活灵活配置混合</t>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.46</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001933</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商新兴活力灵活配置混合</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002148</t>
+          <t>164905</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国寿安保稳惠灵活配置混合</t>
+          <t>交银国证新能源指数（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.30</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>002601</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>中银证券价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.66</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>002601</t>
+          <t>003598</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中银证券价值精选灵活配置混合</t>
+          <t>华商润丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.16</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>007509</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>华商润丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>97.88</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>159990</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>银华巨潮小盘价值ETF</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>97.41</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>3</v>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>003598</t>
+          <t>512100</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合A</t>
+          <t>南方中证1000ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>64.50</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1080,25 +1300,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>159990</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>银华巨潮小盘价值ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30.84</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1108,25 +1338,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>004734</t>
+          <t>004735</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合A</t>
+          <t>中欧瑾灵灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>30.86</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1.29</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>004735</t>
+          <t>005793</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧瑾灵灵活配置混合C</t>
+          <t>华富可转债债券</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>30.86</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007509</t>
+          <t>006486</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>华商润丰灵活配置混合C</t>
+          <t>广发中证1000指数A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>64.50</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>4</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>168002</t>
+          <t>006487</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+          <t>广发中证1000指数C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>91.86</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>501097</t>
+          <t>162413</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+          <t>华宝中证1000指数</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38.42</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007592</t>
+          <t>006992</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>华夏价值精选混合</t>
+          <t>嘉合锦创优势精选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>87.82</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1281,7 +1571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1302,15 +1592,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000061</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏盛世混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.21</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>000061</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>华夏盛世混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>8.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.18</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159804</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.97</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>159804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>97.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.08</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8861</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001849</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源强势共识100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2056,4 +2057,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.97</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2250,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.78</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2288,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.76</v>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2239,13 +2326,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>28</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4766</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2763,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.97</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2801,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.78</v>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3242</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2752,14 +2839,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.76</v>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3051</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2768,13 +2877,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2991</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>290006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰信蓝筹精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2278</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>68.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>970083</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东海证券海盈6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>28</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3186,7 +3187,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3197,17 +3198,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3217,14 +3238,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.029999999999999</v>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3525</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3233,14 +3276,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9</v>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4805</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3249,14 +3314,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.97</v>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7018</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3265,14 +3352,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.78</v>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4410</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3281,14 +3390,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.76</v>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3297,13 +3428,601 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3630</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2699</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1581</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003300</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏圆和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.029999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>28</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>9.76</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>8.029999999999999</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.76</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>28</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.1</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1874</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6168</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3955</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1338</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1294,518 +1709,6 @@
       </c>
       <c r="H18" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>142.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.4766</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1753</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3242</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3051</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2991</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014036</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时成长回报混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014037</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时成长回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>68.14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>970083</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东海证券海盈6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1885,21 +1788,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6889</t>
+          <t>5.4766</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1918,12 +1821,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.84</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1933,7 +1836,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5753</t>
+          <t>1.1753</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1956,26 +1859,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3995</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1984,36 +1887,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1229</t>
+          <t>0.3051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2022,36 +1925,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.05</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.2991</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2060,36 +1963,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011588</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源成份精选混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0443</t>
+          <t>0.2278</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2098,36 +2001,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>014036</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>博时成长回报混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.1480</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2136,36 +2039,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>014037</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>博时成长回报混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2174,36 +2077,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006230</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华研究驱动混合</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2212,32 +2115,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001659</t>
+          <t>002495</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达新动力灵活配置混合</t>
+          <t>前海开源量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2250,36 +2153,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>002496</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>前海开源量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2288,36 +2191,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>970083</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>东海证券海盈6个月持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2326,6 +2229,518 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +2834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +3004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2911,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
+++ b/数据整理/stocks/A股/创业板/300118-东方日升.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>6.86</v>
+        <v>7.15</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>9.76</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>8.029999999999999</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>3.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.78</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.76</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>28</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.1</v>
       </c>
     </row>
@@ -616,7 +633,1601 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>540008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信低碳先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6122</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001643</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8144</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇丰晋信智造先锋股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9684</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>288002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏收入混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6694</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4469</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3076</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007592</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏价值精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2431</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0920</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>38.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007509</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商润丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003567</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏行业景气混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512100</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方中证1000ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159990</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华巨潮小盘价值ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005793</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富可转债债券</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006486</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证1000指数A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006487</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证1000指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华宝中证1000指数</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1427</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6670</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启兴三年持有混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2875</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012850</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2515</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融低碳经济3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>017511</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1709,518 +3320,6 @@
       </c>
       <c r="H18" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>142.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.4766</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010490</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>13.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1753</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.21</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3242</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>10.07</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>90.21</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3051</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008381</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源新兴产业混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.63</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2991</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>290006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>泰信蓝筹精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2278</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>014036</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时成长回报混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1480</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>014037</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>博时成长回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>68.14</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010491</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华高质量增长混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0247</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0155</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>970083</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东海证券海盈6个月持有期混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>20.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2300,21 +3399,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>94.48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.6889</t>
+          <t>5.4766</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2333,12 +3432,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.84</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -2348,7 +3447,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5753</t>
+          <t>1.1753</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2371,26 +3470,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.17</t>
+          <t>93.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>9.21</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3995</t>
+          <t>0.3242</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2399,36 +3498,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>005535</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合</t>
+          <t>泰信竞争优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>10.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.18</t>
+          <t>90.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1229</t>
+          <t>0.3051</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2437,36 +3536,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>前海开源新兴产业混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.57</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.05</t>
+          <t>93.63</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0650</t>
+          <t>0.2991</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2475,36 +3574,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011588</t>
+          <t>290006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源成份精选混合</t>
+          <t>泰信蓝筹精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>7.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>86.84</t>
+          <t>88.52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0443</t>
+          <t>0.2278</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2513,36 +3612,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>014036</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>博时成长回报混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0327</t>
+          <t>0.1480</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2551,36 +3650,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000932</t>
+          <t>014037</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - A</t>
+          <t>博时成长回报混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5.93</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>68.14</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0261</t>
+          <t>0.0269</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2589,36 +3688,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006230</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华研究驱动混合</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>87.07</t>
+          <t>93.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0247</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2627,32 +3726,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001659</t>
+          <t>002495</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富安达新动力灵活配置混合</t>
+          <t>前海开源量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0155</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -2665,36 +3764,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>002496</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>前海开源量化优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>93.24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0079</t>
+          <t>0.0082</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2703,36 +3802,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000933</t>
+          <t>970083</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>前海开源睿远稳健增利混合 - C</t>
+          <t>东海证券海盈6个月持有期混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.90</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0019</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2741,6 +3840,518 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.6889</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3995</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1229</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2834,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3004,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3324,1124 +4935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>540008</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信低碳先锋股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>74.04</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.58</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.6122</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001643</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.8144</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001644</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇丰晋信智造先锋股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9684</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>288002</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏收入混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.6694</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5768</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168002</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保策略精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.66</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.5479</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002148</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国寿安保稳惠灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.30</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4469</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000061</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华夏盛世混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>10.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.3076</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007592</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏价值精选混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.14</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2431</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001822</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商智能生活灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1268</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159804</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国寿安保国证创业板中盘精选88ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>97.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1175</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001933</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商新兴活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.06</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0937</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>004734</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中欧瑾灵灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>7.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0920</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501097</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>38.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0866</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0706</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>164905</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>交银国证新能源指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0655</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002601</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中银证券价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.16</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0646</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003598</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>007509</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商润丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>64.50</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0574</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003567</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>华夏行业景气混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>82.66</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0377</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>512100</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>南方中证1000ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.85</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159990</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>银华巨潮小盘价值ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>97.41</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.56</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>004735</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中欧瑾灵灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>30.86</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>005793</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华富可转债债券</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>20.12</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006486</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>广发中证1000指数A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006487</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>广发中证1000指数C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>162413</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>华宝中证1000指数</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.66</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>006992</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>嘉合锦创优势精选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>88.33</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>